--- a/src/images/propertygaga/purchase-voucher-pending.xlsx
+++ b/src/images/propertygaga/purchase-voucher-pending.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Perbadanan Pengurusan Relau Vista Apartment</t>
   </si>
@@ -199,6 +199,33 @@
   <si>
     <t>Total Payment</t>
   </si>
+  <si>
+    <t>Prepare by:
+Site Admin
+ + +—————————————————- +Name: +Date:</t>
+  </si>
+  <si>
+    <t>Checked and Confirmed by:
+Building Supervisor/Manager
+ + +—————————————————- +Name: +Date:</t>
+  </si>
+  <si>
+    <t>Confirmed by:
+Account Department
+ + +—————————————————- +Name: +Date:</t>
+  </si>
 </sst>
 </file>
 
@@ -207,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -274,6 +301,11 @@
       <color indexed="16"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -301,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -716,13 +748,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top/>
+      <bottom>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top>
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -903,20 +968,29 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2016,7 +2090,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2669,8 +2743,41 @@
       <c r="I29" s="62"/>
       <c r="J29" s="62"/>
     </row>
+    <row r="30" ht="23" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" ht="139.85" customHeight="1">
+      <c r="A31" t="s" s="65">
+        <v>48</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" t="s" s="65">
+        <v>49</v>
+      </c>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" t="s" s="65">
+        <v>50</v>
+      </c>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
